--- a/bom/radio.xlsx
+++ b/bom/radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB88C3CF-9EE6-4538-893F-3E7D1CFAEE04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE9DC4-FB09-49E4-8B89-541CF92AD3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="2270" windowWidth="21320" windowHeight="14390" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
+    <workbookView xWindow="2030" yWindow="650" windowWidth="27380" windowHeight="16310" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="transceiver-AX5043" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>1276-2172-1-ND</t>
-  </si>
-  <si>
-    <t>ORD</t>
   </si>
   <si>
     <t>CL05C102JB5NNNC</t>
@@ -445,7 +442,7 @@
       <name val="Sans"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,12 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -516,9 +507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,7 +877,7 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -1082,8 +1070,8 @@
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>115</v>
+      <c r="B12" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1108,8 +1096,8 @@
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>115</v>
+      <c r="B13" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1118,16 +1106,16 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
         <v>117</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1160,8 +1148,8 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>115</v>
+      <c r="B15" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1187,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1196,15 +1184,15 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>115</v>
+      <c r="B17" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1281,8 +1269,8 @@
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>115</v>
+      <c r="B20" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1291,24 +1279,24 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" t="s">
         <v>121</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
         <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>115</v>
+      <c r="B21" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1333,8 +1321,8 @@
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>115</v>
+      <c r="B22" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1359,8 +1347,8 @@
       <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>115</v>
+      <c r="B23" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1415,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1424,7 +1412,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1457,8 +1445,8 @@
       <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>115</v>
+      <c r="B27" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -1467,16 +1455,16 @@
         <v>75</v>
       </c>
       <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
         <v>119</v>
       </c>
-      <c r="G27" t="s">
-        <v>120</v>
-      </c>
       <c r="H27" t="s">
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1484,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -1493,7 +1481,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1608,8 +1596,8 @@
       <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" s="15" t="s">
-        <v>115</v>
+      <c r="B33" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>

--- a/bom/radio.xlsx
+++ b/bom/radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EE9DC4-FB09-49E4-8B89-541CF92AD3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4E051-D7EB-4C07-9FDC-870CAD0FDD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="650" windowWidth="27380" windowHeight="16310" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
+    <workbookView xWindow="16110" yWindow="4620" windowWidth="27380" windowHeight="15550" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="transceiver-AX5043" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Source: transceiver-AX5043.sch</t>
   </si>
   <si>
-    <t>INVTRY</t>
-  </si>
-  <si>
     <t>CL10B223KA8NNNC</t>
   </si>
   <si>
@@ -420,6 +417,15 @@
   </si>
   <si>
     <t>Modified: 2019-11-10</t>
+  </si>
+  <si>
+    <t>Assembled 1x transceiver-AX5043</t>
+  </si>
+  <si>
+    <t>USED</t>
+  </si>
+  <si>
+    <t>Updated to 150 ohm</t>
   </si>
 </sst>
 </file>
@@ -451,7 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,12 +507,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3FADD1-713C-4D73-BB91-56791D3D3B0F}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
@@ -877,7 +883,7 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -966,112 +972,112 @@
       <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>56</v>
+      <c r="B8" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
         <v>71</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>72</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
         <v>73</v>
-      </c>
-      <c r="H8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
+      <c r="B9" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
         <v>71</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" t="s">
         <v>73</v>
-      </c>
-      <c r="H9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>56</v>
+      <c r="B10" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" t="s">
         <v>73</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
         <v>1</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>56</v>
+      <c r="B11" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
         <v>73</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>56</v>
+      <c r="B12" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1080,24 +1086,24 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
-        <v>107</v>
-      </c>
       <c r="H12" t="s">
         <v>53</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>56</v>
+      <c r="B13" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1106,24 +1112,24 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" t="s">
         <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>56</v>
+      <c r="B14" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1148,26 +1154,26 @@
       <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>56</v>
+      <c r="B15" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>109</v>
-      </c>
       <c r="H15" t="s">
         <v>53</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1175,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1184,15 +1190,15 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>56</v>
+      <c r="B17" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1201,24 +1207,24 @@
         <v>50</v>
       </c>
       <c r="F17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" t="s">
         <v>113</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>56</v>
+      <c r="B18" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -1227,24 +1233,24 @@
         <v>50</v>
       </c>
       <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
         <v>60</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" t="s">
         <v>61</v>
-      </c>
-      <c r="H18" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>56</v>
+      <c r="B19" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1253,24 +1259,24 @@
         <v>50</v>
       </c>
       <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" t="s">
         <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>56</v>
+      <c r="B20" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1279,123 +1285,123 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
         <v>120</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
         <v>121</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3">
         <v>2</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>56</v>
+      <c r="B21" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
         <v>100</v>
-      </c>
-      <c r="F21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="3">
         <v>2</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>56</v>
+      <c r="B22" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>100</v>
+      <c r="E22" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
         <v>103</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
         <v>104</v>
-      </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>56</v>
+      <c r="B23" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="H23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>1</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>56</v>
+      <c r="B24" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
       </c>
       <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
         <v>65</v>
-      </c>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1403,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1412,59 +1418,62 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>56</v>
+      <c r="B26" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>76</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
         <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="3">
         <v>1</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>56</v>
+      <c r="B27" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="s">
         <v>118</v>
       </c>
-      <c r="G27" t="s">
-        <v>119</v>
-      </c>
       <c r="H27" t="s">
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1472,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -1481,86 +1490,86 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>1</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>56</v>
+      <c r="B29" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
         <v>82</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
         <v>83</v>
-      </c>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="3">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>56</v>
+      <c r="B30" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" t="s">
         <v>79</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" t="s">
         <v>80</v>
-      </c>
-      <c r="H30" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="9">
         <v>1</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>56</v>
+      <c r="B31" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
@@ -1570,55 +1579,55 @@
       <c r="A32" s="3">
         <v>3</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>56</v>
+      <c r="B32" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
         <v>68</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>69</v>
-      </c>
-      <c r="I32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>56</v>
+      <c r="B33" s="14" t="s">
+        <v>128</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" t="s">
         <v>90</v>
       </c>
-      <c r="F33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="J33" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" t="s">
-        <v>91</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1661,6 +1670,14 @@
       </c>
       <c r="C41" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="B42" s="8">
+        <v>43786</v>
+      </c>
+      <c r="C42" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/bom/radio.xlsx
+++ b/bom/radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emastro\Documents\OreSat\GitHub\oresat-c3-rf\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF4E051-D7EB-4C07-9FDC-870CAD0FDD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2AD5AC-3215-4DE7-8472-DEDF980F9C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="4620" windowWidth="27380" windowHeight="15550" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
+    <workbookView xWindow="2660" yWindow="2450" windowWidth="27380" windowHeight="15550" xr2:uid="{4DFBC989-CDFB-46E4-83A3-E560D2FA75A7}"/>
   </bookViews>
   <sheets>
     <sheet name="transceiver-AX5043" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="130">
   <si>
     <t>Bill Of Materials</t>
   </si>
@@ -389,12 +389,6 @@
     <t>1276-1635-1-ND</t>
   </si>
   <si>
-    <t>RMCF0402FT1K00CT-ND</t>
-  </si>
-  <si>
-    <t>R - 0402, 1.0k, 1%, 100ppm</t>
-  </si>
-  <si>
     <t>CL10A475KO8NNNC</t>
   </si>
   <si>
@@ -425,7 +419,13 @@
     <t>USED</t>
   </si>
   <si>
-    <t>Updated to 150 ohm</t>
+    <t>R - 0402, 150 ohm</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Updated to 150 ohm from 1k</t>
   </si>
 </sst>
 </file>
@@ -827,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3FADD1-713C-4D73-BB91-56791D3D3B0F}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -845,7 +845,7 @@
     <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.90625" customWidth="1"/>
     <col min="10" max="10" width="8.36328125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" customWidth="1"/>
+    <col min="11" max="11" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="36.7265625" customWidth="1"/>
     <col min="16" max="16" width="27.81640625" customWidth="1"/>
     <col min="17" max="17" width="29.7265625" customWidth="1"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:12" ht="13">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
@@ -973,7 +973,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1103,7 +1103,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -1155,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -1190,7 +1190,7 @@
         <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
         <v>34</v>
@@ -1250,7 +1250,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
@@ -1276,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>38</v>
@@ -1285,16 +1285,16 @@
         <v>50</v>
       </c>
       <c r="F20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
         <v>119</v>
-      </c>
-      <c r="G20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1302,7 +1302,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -1328,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -1383,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>42</v>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -1418,7 +1418,7 @@
         <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1426,7 +1426,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
         <v>26</v>
@@ -1452,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
@@ -1461,16 +1461,16 @@
         <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
         <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K27" t="s">
         <v>129</v>
@@ -1481,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -1490,7 +1490,7 @@
         <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -1550,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>49</v>
@@ -1580,7 +1580,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
         <v>31</v>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -1677,7 +1677,15 @@
         <v>43786</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="8">
+        <v>43805</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
